--- a/conteudoBandtecBachega/Pasta1.xlsx
+++ b/conteudoBandtecBachega/Pasta1.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Aluno\Desktop\Máquina Virtual\Bachega-s-repository\conteudoBandtecBachega\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="Planilha redundante" sheetId="1" r:id="rId1"/>
     <sheet name="Planilha sem redundância" sheetId="4" r:id="rId2"/>
-    <sheet name="Código nome" sheetId="2" r:id="rId3"/>
+    <sheet name="representante" sheetId="2" r:id="rId3"/>
     <sheet name="Código empresa" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
@@ -27,14 +27,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="18">
   <si>
     <t>Nome:</t>
   </si>
   <si>
-    <t>E-Mail:</t>
-  </si>
-  <si>
     <t>Código:</t>
   </si>
   <si>
@@ -53,21 +50,9 @@
     <t>Edson Arantes do Nascimento</t>
   </si>
   <si>
-    <t>raphaelbachega@hotmail.com</t>
-  </si>
-  <si>
-    <t>caladoeumpoeta@gmail.com</t>
-  </si>
-  <si>
-    <t>R.vivara@yahoo.com</t>
-  </si>
-  <si>
     <t>Ronaldinho Gaúcho</t>
   </si>
   <si>
-    <t>r_dibres@outlook.com</t>
-  </si>
-  <si>
     <t>C6 Bank</t>
   </si>
   <si>
@@ -90,24 +75,22 @@
   </si>
   <si>
     <t>Ana</t>
+  </si>
+  <si>
+    <t>Nome</t>
+  </si>
+  <si>
+    <t>representante</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -142,11 +125,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -156,27 +138,14 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hiperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -455,10 +424,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -469,93 +438,72 @@
     <col min="4" max="4" width="18.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+      <c r="B2" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" s="4" t="s">
+      <c r="B3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
+      <c r="B5" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" s="4" t="s">
+      <c r="C5" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>20</v>
-      </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1"/>
-    <hyperlink ref="B3" r:id="rId2"/>
-    <hyperlink ref="B5" r:id="rId3"/>
-    <hyperlink ref="B4" r:id="rId4"/>
-  </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -566,83 +514,62 @@
     <col min="4" max="4" width="16.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="6">
         <v>1</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="B2" s="6">
+        <v>11</v>
+      </c>
+      <c r="C2" s="6">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="5">
+        <v>2</v>
+      </c>
+      <c r="B3" s="5">
+        <v>12</v>
+      </c>
+      <c r="C3" s="5">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="6">
+        <v>3</v>
+      </c>
+      <c r="B4" s="6">
+        <v>13</v>
+      </c>
+      <c r="C4" s="6">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="5">
         <v>4</v>
       </c>
-      <c r="D1" s="7" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="8">
-        <v>1</v>
-      </c>
-      <c r="B2" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" s="8">
-        <v>11</v>
-      </c>
-      <c r="D2" s="8" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="7">
-        <v>2</v>
-      </c>
-      <c r="B3" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" s="7">
-        <v>12</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="8">
-        <v>3</v>
-      </c>
-      <c r="B4" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" s="8">
-        <v>13</v>
-      </c>
-      <c r="D4" s="8" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="7">
-        <v>4</v>
-      </c>
-      <c r="B5" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" s="7">
+      <c r="B5" s="5">
         <v>14</v>
       </c>
-      <c r="D5" s="7" t="s">
-        <v>20</v>
+      <c r="C5" s="5">
+        <v>114</v>
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1"/>
-    <hyperlink ref="B3" r:id="rId2"/>
-    <hyperlink ref="B5" r:id="rId3"/>
-    <hyperlink ref="B4" r:id="rId4"/>
-  </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>
@@ -652,20 +579,21 @@
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="12.7109375" customWidth="1"/>
     <col min="2" max="2" width="27" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>0</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -673,7 +601,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -681,7 +609,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -689,7 +617,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -697,7 +625,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -720,10 +648,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -731,7 +659,7 @@
         <v>11</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -739,7 +667,7 @@
         <v>12</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -747,7 +675,7 @@
         <v>13</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -755,7 +683,7 @@
         <v>14</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
